--- a/BugReportPAGE_hutbazar.xlsx
+++ b/BugReportPAGE_hutbazar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual-Testing-Projects\ManualTesting of Hutbazar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual-Testing-Projects\Manual-Testing-Of-Hutbazar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,6 +106,9 @@
     <t>df_id_004</t>
   </si>
   <si>
+    <t xml:space="preserve"> all image sizes are not equal. there is a different sizes image in the Explore Popular Categories section</t>
+  </si>
+  <si>
     <t>df_id_005</t>
   </si>
   <si>
@@ -130,7 +133,13 @@
     <t>df_id_007</t>
   </si>
   <si>
+    <t>all image size is not equal  in the 'Our Daily Deals section'</t>
+  </si>
+  <si>
     <t>df_id_008</t>
+  </si>
+  <si>
+    <t>contact email box and submit button size are not equal in the 'footer section'</t>
   </si>
   <si>
     <t>1. click on the image
@@ -170,7 +179,13 @@
     <t>The view cart button is not visible in the foreground. The cart button was stuck in the nav bar.</t>
   </si>
   <si>
+    <t>success message is not displayed on the front after adding the product to the cart.</t>
+  </si>
+  <si>
     <t>click on the 'add button '</t>
+  </si>
+  <si>
+    <t>success message should be viewed on the front after adding the product to the cart.</t>
   </si>
   <si>
     <t>There was no success message on the front after adding the product to the cart.
@@ -190,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve"> '+' , and '-' option was not available after update cart button</t>
+  </si>
+  <si>
+    <t>the cart related product suggestion is not seen adding a item to the cart</t>
   </si>
   <si>
     <t xml:space="preserve">click on the add button </t>
@@ -218,24 +236,6 @@
   </si>
   <si>
     <t>The size of the input box and the coupon button in a 'promotional code section?' are not the same</t>
-  </si>
-  <si>
-    <t>Success message is not displayed on the front after adding the product to the cart.</t>
-  </si>
-  <si>
-    <t>Success message should be viewed on the front after adding the product to the cart.</t>
-  </si>
-  <si>
-    <t>The cart related product suggestion is not seen adding a item to the cart</t>
-  </si>
-  <si>
-    <t>All image sizes are not equal. there is a different sizes image in the Explore Popular Categories section</t>
-  </si>
-  <si>
-    <t>All image size is not equal  in the 'Our Daily Deals section'</t>
-  </si>
-  <si>
-    <t>Contact email box and submit button size are not equal in the 'footer section'</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>23</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="6" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="8" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
@@ -968,19 +968,19 @@
     </row>
     <row r="9" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -1010,19 +1010,19 @@
     </row>
     <row r="10" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -1062,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1122,16 +1122,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>19</v>
@@ -1164,16 +1164,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -1206,16 +1206,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>19</v>
@@ -1248,16 +1248,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="6" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>23</v>

--- a/BugReportPAGE_hutbazar.xlsx
+++ b/BugReportPAGE_hutbazar.xlsx
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,6 +271,27 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -286,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -346,11 +367,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,22 +433,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,7 +693,7 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
@@ -673,7 +742,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -715,7 +784,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -757,7 +826,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -772,11 +841,11 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
+      <c r="F4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -799,7 +868,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -814,11 +883,11 @@
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
+      <c r="F5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -841,7 +910,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -859,7 +928,7 @@
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="3"/>
@@ -898,11 +967,11 @@
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
+      <c r="F7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -937,14 +1006,14 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
+      <c r="F8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1052,6 +1121,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1069,7 +1139,7 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
@@ -1118,103 +1188,103 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+    </row>
+    <row r="3" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="3" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1223,40 +1293,40 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1265,193 +1335,193 @@
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-    </row>
-    <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BugReportPAGE_hutbazar.xlsx
+++ b/BugReportPAGE_hutbazar.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Front-PageBug" sheetId="1" r:id="rId1"/>
     <sheet name="AddToCart-PageBug" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -53,12 +54,6 @@
 2. Enter any letter on the searchbar</t>
   </si>
   <si>
-    <t>it should be visiable with all products which start with the letter</t>
-  </si>
-  <si>
-    <t>it does not show any name which start with the letter</t>
-  </si>
-  <si>
     <t>minor</t>
   </si>
   <si>
@@ -75,12 +70,6 @@
 2. Enter any invalid keywords on the searchbar</t>
   </si>
   <si>
-    <t xml:space="preserve">it should be displayed the keywords are not valid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">it's visiable with all products which has the symbol </t>
-  </si>
-  <si>
     <t>major</t>
   </si>
   <si>
@@ -90,159 +79,171 @@
     <t>df_id_003</t>
   </si>
   <si>
-    <t xml:space="preserve"> all image sizes are not equal. there is a different sizes image in the Featured Products section</t>
-  </si>
-  <si>
-    <t>1. click on the image
-2. inspect the images/product card and measure the size</t>
-  </si>
-  <si>
-    <t>images should be equal size</t>
-  </si>
-  <si>
-    <t>images are not equal size</t>
-  </si>
-  <si>
     <t>df_id_004</t>
   </si>
   <si>
-    <t xml:space="preserve"> all image sizes are not equal. there is a different sizes image in the Explore Popular Categories section</t>
-  </si>
-  <si>
     <t>df_id_005</t>
   </si>
   <si>
     <t>After hovering over the product/card, the hover function of the card/product in the'Explore Popular Categories section' does not work.</t>
   </si>
   <si>
-    <t xml:space="preserve">check the hover function on the cards </t>
-  </si>
-  <si>
-    <t>all images should be hovered</t>
-  </si>
-  <si>
-    <t>all images have not hovered</t>
-  </si>
-  <si>
     <t>df_id_006</t>
   </si>
   <si>
-    <t>all image size is not equal  in the 'Recent Additions section'</t>
-  </si>
-  <si>
     <t>df_id_007</t>
   </si>
   <si>
-    <t>all image size is not equal  in the 'Our Daily Deals section'</t>
-  </si>
-  <si>
     <t>df_id_008</t>
   </si>
   <si>
-    <t>contact email box and submit button size are not equal in the 'footer section'</t>
-  </si>
-  <si>
-    <t>1. click on the image
-2. inspect the email box and submit button measure the size</t>
-  </si>
-  <si>
-    <t>email box and submit button should be equal size</t>
-  </si>
-  <si>
-    <t>email box and submit button are not equal size</t>
-  </si>
-  <si>
     <t>df_id_009</t>
   </si>
   <si>
     <t>Alignment problem between all section titles</t>
   </si>
   <si>
-    <t xml:space="preserve">inspect the sections measure the alignment </t>
-  </si>
-  <si>
-    <t>all section name position and alignment should be same</t>
-  </si>
-  <si>
-    <t>all section name position and alignment are not same</t>
-  </si>
-  <si>
     <t>View Cart button is not seen on the display page after add to cart a product from the Home page</t>
   </si>
   <si>
-    <t xml:space="preserve"> click on the 'add button '</t>
-  </si>
-  <si>
-    <t>View Cart button should be seen on the front like modal or pop up</t>
-  </si>
-  <si>
     <t>The view cart button is not visible in the foreground. The cart button was stuck in the nav bar.</t>
   </si>
   <si>
-    <t>success message is not displayed on the front after adding the product to the cart.</t>
-  </si>
-  <si>
-    <t>click on the 'add button '</t>
-  </si>
-  <si>
-    <t>success message should be viewed on the front after adding the product to the cart.</t>
+    <t>The quality update options +' , and '-' are no longer available after the cart update button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' , and '-' option should be available after update cart button for more modify item if user want</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' , and '-' option was not available after update cart button</t>
+  </si>
+  <si>
+    <t>Shipping can not updated by an unregister user but here unregistered users can update shipping address in Calculate Shipping section</t>
+  </si>
+  <si>
+    <t>It should not be updated the address without registration</t>
+  </si>
+  <si>
+    <t>The shipping address was updated without log in</t>
+  </si>
+  <si>
+    <t>The size of the input box and the coupon button in a 'promotional code section?' are not the same</t>
+  </si>
+  <si>
+    <t>All image sizes are not equal. there is a different sizes image in the Featured Products section</t>
+  </si>
+  <si>
+    <t>All image sizes are not equal. there is a different sizes image in the Explore Popular Categories section</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>All image size is not equal  in the 'Our Daily Deals section'</t>
+  </si>
+  <si>
+    <t>Contact email box and submit button size are not equal in the 'footer section'</t>
+  </si>
+  <si>
+    <t>Success message is not displayed on the front after adding the product to the cart.</t>
+  </si>
+  <si>
+    <t>Cuccess message should be viewed on the front after adding the product to the cart.</t>
+  </si>
+  <si>
+    <t>The cart related product suggestion is not seen adding a item to the cart</t>
+  </si>
+  <si>
+    <t>There was no suggestion to add like added item</t>
+  </si>
+  <si>
+    <t>All image size is not equal  in the 'Recent Additions section'</t>
+  </si>
+  <si>
+    <t>1. Click on the image
+2. Inspect the images/product card and measure the size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the hover function on the cards </t>
+  </si>
+  <si>
+    <t>1. Click on the image
+2. Inspect the email box and submit button measure the size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspect the sections measure the alignment </t>
+  </si>
+  <si>
+    <t>It should be visiable with all products which start with the letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be displayed the keywords are not valid </t>
+  </si>
+  <si>
+    <t>Images should be equal size</t>
+  </si>
+  <si>
+    <t>All images should be hovered</t>
+  </si>
+  <si>
+    <t>Email box and submit button should be equal size</t>
+  </si>
+  <si>
+    <t>All section name position and alignment should be same</t>
+  </si>
+  <si>
+    <t>It does not show any name which start with the letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's visiable with all products which has the symbol </t>
+  </si>
+  <si>
+    <t>Images are not equal size</t>
+  </si>
+  <si>
+    <t>All images have not hovered</t>
+  </si>
+  <si>
+    <t>Email box and submit button are not equal size</t>
+  </si>
+  <si>
+    <t>All section name position and alignment are not same</t>
+  </si>
+  <si>
+    <t>View cart button should be seen on the front like modal or pop up</t>
+  </si>
+  <si>
+    <t>Click on the 'add button '</t>
   </si>
   <si>
     <t>There was no success message on the front after adding the product to the cart.
-It was just a checked symbol on the peoduct.</t>
-  </si>
-  <si>
-    <t>The quality update options +' , and '-' are no longer available after the cart update button</t>
-  </si>
-  <si>
-    <t>1. click on the product details button
-2. click on the add button
-3. click on the '+' , '-' button
-4. click on the 'update cart'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '+' , and '-' option should be available after update cart button for more modify item if user want</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '+' , and '-' option was not available after update cart button</t>
-  </si>
-  <si>
-    <t>the cart related product suggestion is not seen adding a item to the cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click on the add button </t>
-  </si>
-  <si>
-    <t>should be displayed related product suggestion after add a item to the cart</t>
-  </si>
-  <si>
-    <t>there was no suggestion to add like added item</t>
-  </si>
-  <si>
-    <t>Shipping can not updated by an unregister user but here unregistered users can update shipping address in Calculate Shipping section</t>
-  </si>
-  <si>
-    <t>1. click on the product details button
-2. click on the add button 
-3. click on the view cart button
-3. enter address information
-4. click on updated button</t>
-  </si>
-  <si>
-    <t>It should not be updated the address without registration</t>
-  </si>
-  <si>
-    <t>The shipping address was updated without log in</t>
-  </si>
-  <si>
-    <t>The size of the input box and the coupon button in a 'promotional code section?' are not the same</t>
+it was just a checked symbol on the peoduct.</t>
+  </si>
+  <si>
+    <t>1. Click on the product details button
+2. Click on the add button
+3. Click on the '+' , '-' button
+4. Click on the 'update cart'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the add button </t>
+  </si>
+  <si>
+    <t>Should be displayed related product suggestion after add a item to the cart</t>
+  </si>
+  <si>
+    <t>1. Click on the product details button
+2. Click on the add button 
+3. Click on the view cart button
+3. Enter address information
+4. Click on updated button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,6 +289,26 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -404,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -415,9 +436,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -430,9 +448,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -465,6 +480,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,28 +767,28 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -784,26 +809,26 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -826,26 +851,26 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>13</v>
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -868,26 +893,26 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>13</v>
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -910,26 +935,26 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>13</v>
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -952,26 +977,26 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>13</v>
+      <c r="A7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -994,26 +1019,26 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>13</v>
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1036,26 +1061,26 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1078,26 +1103,26 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1188,340 +1213,340 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
